--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -1,95 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozlo\IdeaProjects\hometracker_kurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC42FD61-2139-4688-BD37-FF8A17B861E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BF359-B3E5-49CE-B144-D1048714E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86DB9CF2-A505-4866-A394-2039CF33D515}"/>
+    <workbookView xWindow="2052" yWindow="1044" windowWidth="17280" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
-  <si>
-    <t>Помыть посуду</t>
-  </si>
-  <si>
-    <t>Помыть всю грязную посуду на кухне</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Last Completed</t>
+  </si>
+  <si>
+    <t>Frequency Days</t>
+  </si>
+  <si>
+    <t>Приготовить ужин</t>
+  </si>
+  <si>
+    <t>Приготовить ужин для всей семьи</t>
   </si>
   <si>
     <t>Мама</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>2025-05-10 02:22:32.418679</t>
-  </si>
-  <si>
-    <t>Пропылесосить</t>
-  </si>
-  <si>
-    <t>Пропылесосить все комнаты</t>
+    <t>OVERDUE</t>
+  </si>
+  <si>
+    <t>Полить цветы</t>
+  </si>
+  <si>
+    <t>Полить все комнатные растения</t>
+  </si>
+  <si>
+    <t>Ребенок</t>
+  </si>
+  <si>
+    <t>Починить кран</t>
+  </si>
+  <si>
+    <t>Починить протекающий кран на кухне</t>
   </si>
   <si>
     <t>Папа</t>
   </si>
   <si>
-    <t>Купить продукты</t>
-  </si>
-  <si>
-    <t>Молоко, хлеб, яйца, фрукты</t>
-  </si>
-  <si>
-    <t>Забрать детей</t>
-  </si>
-  <si>
-    <t>Забрать детей из школы в 15:00</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
-    <t>Помыть пол</t>
-  </si>
-  <si>
-    <t>Зал и кухня</t>
-  </si>
-  <si>
-    <t>Аня</t>
-  </si>
-  <si>
-    <t>2025-05-10 02:51:51.195454</t>
+    <t>Оплатить счета</t>
+  </si>
+  <si>
+    <t>Оплатить электричество и интернет</t>
+  </si>
+  <si>
+    <t>Записаться к врачу</t>
+  </si>
+  <si>
+    <t>Записаться на прием к стоматологу</t>
+  </si>
+  <si>
+    <t>Сделать зарядку</t>
+  </si>
+  <si>
+    <t>Утренние упражнения для здоровья</t>
+  </si>
+  <si>
+    <t>Почитать книгу</t>
+  </si>
+  <si>
+    <t>Прочитать главу из новой книги</t>
+  </si>
+  <si>
+    <t>Выбросить мусор</t>
+  </si>
+  <si>
+    <t>Выбросить бытовой мусор</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Приготовление еды</t>
+  </si>
+  <si>
+    <t>Сад и огород</t>
+  </si>
+  <si>
+    <t>Ремонт и обслуживание</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Хобби и личное</t>
+  </si>
+  <si>
+    <t>Прочее</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -428,181 +490,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04DD10A-906D-4B5A-99CA-BB747237C1DA}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
         <v>45788</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45789</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45787</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45789</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45787</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45790</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <v>45787</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45787</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45796</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45797</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45798</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45799</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45800</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -71,46 +71,64 @@
     <t>Починить кран</t>
   </si>
   <si>
-    <t>2025-05-21</t>
+    <t>2025-05-28</t>
   </si>
   <si>
     <t>Папа</t>
   </si>
   <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Ремонт и обслуживание</t>
+  </si>
+  <si>
+    <t>Оплатить счета</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>POSTPONED</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Записаться к врачу</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Сделать зарядку</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>Хобби и личное</t>
+  </si>
+  <si>
+    <t>Почитать книгу</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>Выбросить мусор</t>
+  </si>
+  <si>
     <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Ремонт и обслуживание</t>
-  </si>
-  <si>
-    <t>Оплатить счета</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>POSTPONED</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Записаться к врачу</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Сделать зарядку</t>
-  </si>
-  <si>
-    <t>Хобби и личное</t>
-  </si>
-  <si>
-    <t>Почитать книгу</t>
-  </si>
-  <si>
-    <t>Выбросить мусор</t>
   </si>
   <si>
     <t>Прочее</t>
@@ -176,7 +194,7 @@
     <col min="4" max="4" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.96484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.15625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.18359375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.2265625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="23.78125" customWidth="true" bestFit="true"/>
   </cols>
@@ -284,6 +302,9 @@
       <c r="G4" t="s" s="0">
         <v>21</v>
       </c>
+      <c r="H4" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="I4" t="s" s="0">
         <v>22</v>
       </c>
@@ -311,10 +332,10 @@
         <v>25</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -322,13 +343,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
@@ -339,8 +360,11 @@
       <c r="G6" t="s" s="0">
         <v>21</v>
       </c>
+      <c r="H6" t="s" s="0">
+        <v>30</v>
+      </c>
       <c r="I6" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -348,13 +372,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>3.0</v>
@@ -363,10 +387,13 @@
         <v>20</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -374,13 +401,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>3.0</v>
@@ -389,10 +416,13 @@
         <v>16</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -400,13 +430,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -415,10 +445,13 @@
         <v>11</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -83,39 +83,42 @@
     <t>Ремонт и обслуживание</t>
   </si>
   <si>
+    <t>Оплатить счета2</t>
+  </si>
+  <si>
     <t>Оплатить счета</t>
   </si>
   <si>
     <t>2025-06-01</t>
   </si>
   <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Записаться к врачу</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Сделать зарядку</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
     <t>POSTPONED</t>
   </si>
   <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Записаться к врачу</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Сделать зарядку</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
     <t>Хобби и личное</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t>Выбросить мусор</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
   </si>
   <si>
     <t>Прочее</t>
@@ -188,7 +188,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.3046875" customWidth="true" bestFit="true"/>
@@ -317,21 +317,18 @@
         <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s" s="0">
         <v>26</v>
       </c>
       <c r="I5" t="s" s="0">
@@ -387,13 +384,13 @@
         <v>20</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>19</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -401,13 +398,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>3.0</v>
@@ -416,27 +413,27 @@
         <v>16</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>19</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -445,10 +442,10 @@
         <v>11</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>39</v>

--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -80,55 +80,58 @@
     <t>COMPLETED</t>
   </si>
   <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
     <t>Ремонт и обслуживание</t>
   </si>
   <si>
-    <t>Оплатить счета2</t>
-  </si>
-  <si>
     <t>Оплатить счета</t>
   </si>
   <si>
     <t>2025-06-01</t>
   </si>
   <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Записаться к врачу</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Сделать зарядку</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>POSTPONED</t>
+  </si>
+  <si>
+    <t>Хобби и личное</t>
+  </si>
+  <si>
+    <t>Почитать книгу</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>Выбросить мусор</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
     <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Записаться к врачу</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Сделать зарядку</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>POSTPONED</t>
-  </si>
-  <si>
-    <t>Хобби и личное</t>
-  </si>
-  <si>
-    <t>Почитать книгу</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>Выбросить мусор</t>
   </si>
   <si>
     <t>Прочее</t>
@@ -303,10 +306,10 @@
         <v>21</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -314,7 +317,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>24</v>
@@ -329,10 +332,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -340,13 +343,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
@@ -358,10 +361,10 @@
         <v>21</v>
       </c>
       <c r="H6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -369,13 +372,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>33</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>3.0</v>
@@ -384,13 +387,13 @@
         <v>20</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>19</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -398,13 +401,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>3.0</v>
@@ -413,27 +416,27 @@
         <v>16</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>19</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>37</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -442,13 +445,10 @@
         <v>11</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -68,73 +68,73 @@
     <t>Сад и огород</t>
   </si>
   <si>
+    <t>Оплатить счета</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>Папа</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Сделать зарядку</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>POSTPONED</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>Хобби и личное</t>
+  </si>
+  <si>
+    <t>Выбросить мусор</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>Почитать книгу</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
     <t>Починить кран</t>
   </si>
   <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>Папа</t>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>Ремонт и обслуживание</t>
+  </si>
+  <si>
+    <t>Записаться к врачу</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
   </si>
   <si>
     <t>COMPLETED</t>
   </si>
   <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>Ремонт и обслуживание</t>
-  </si>
-  <si>
-    <t>Оплатить счета</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Записаться к врачу</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
+    <t>2025-06-04</t>
   </si>
   <si>
     <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Сделать зарядку</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>POSTPONED</t>
-  </si>
-  <si>
-    <t>Хобби и личное</t>
-  </si>
-  <si>
-    <t>Почитать книгу</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>Выбросить мусор</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Прочее</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>18</v>
@@ -303,36 +303,36 @@
         <v>20</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>25</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>26</v>
@@ -340,7 +340,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>27</v>
@@ -355,12 +355,9 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s" s="0">
         <v>29</v>
       </c>
       <c r="I6" t="s" s="0">
@@ -369,7 +366,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>31</v>
@@ -384,67 +381,64 @@
         <v>3.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>38</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>39</v>
       </c>
       <c r="I9" t="s" s="0">

--- a/household_tasks.xlsx
+++ b/household_tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +119,12 @@
     <t>2025-06-06</t>
   </si>
   <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
     <t>Ремонт и обслуживание</t>
   </si>
   <si>
@@ -126,12 +132,6 @@
   </si>
   <si>
     <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
   </si>
   <si>
     <t>Здоровье</t>
@@ -410,10 +410,13 @@
         <v>20</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -421,13 +424,13 @@
         <v>15.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -436,10 +439,10 @@
         <v>16</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>40</v>
